--- a/outputs/sampling/sampled_translations_checked.xlsx
+++ b/outputs/sampling/sampled_translations_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lasse\Documents\6sem\Project\dataset-generation\outputs\sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C495D89F-0FA0-413C-A642-BDE5158006F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3EB641-1098-4083-9518-B124922E8FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B83" sqref="A83:B83"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
